--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -575,7 +575,7 @@
         <v>45937.52355324074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45328</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45730.47016203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45730.47016203704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44319</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45610</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45804</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>44535</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45041.38268518518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44819</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45763.28596064815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45573.72543981481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45559.69049768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45547.66675925926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45446.43868055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45971.41400462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45988.61780092592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45471</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45664</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>46045</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45043.58965277778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44459</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45187.50584490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45638.32918981482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44768</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44805.45337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44530.58934027778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44805</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44810.51231481481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44512.46798611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44597</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>44461.63753472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>44340.66128472222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44613.61299768519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44798.35671296297</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44511</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44515</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44354</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44615.49030092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44477.59568287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44351.39648148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44586.37515046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44307</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44445.44356481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44442</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44823.67513888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44239.5428125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44511</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44431.36233796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44613</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44363</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>44364.7040162037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>44351</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44401.56947916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44434.40148148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44414.61907407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44412</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>44504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>44609.61655092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44487.40401620371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44525.55510416667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44454.6562962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44454.65834490741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44867.62162037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44293</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44734.80560185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44692</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44615.3480324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44257</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44859.32788194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44488.38900462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44306</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44306</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44833</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44859.58693287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44434.40337962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44739.71146990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44515.6831712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44735.66392361111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44461.34828703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44854.54513888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44728.48572916666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44538</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44635</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44336</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44490.62605324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44461.61133101852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44438</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44326</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44606</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44323.62754629629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44735.65734953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44438</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44462.37774305556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44469.84737268519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44477.58659722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44706</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44306.62743055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44487.40119212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44804</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44855.73349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45748.64699074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45740.42515046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44656</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45338.50238425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45400</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44783.50260416666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44743</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44512.50164351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>45385.48532407408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44385</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44991.38533564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44938.32413194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45218.36541666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44783.91359953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44569</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45530.50984953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44783.91583333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44901.46834490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45103</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>45384.46765046296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44419</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45012.32489583334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>45113.63806712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44600</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44606.47229166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44687.495625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>45608.39688657408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45518.54971064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45632.59958333334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45771.445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45359.44944444444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44735.67114583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45247</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>45089.63818287037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44295</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45272.57439814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45135.67082175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45666.45196759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45681.53275462963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44970.5053587963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45110</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45166.48193287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44365</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45629.54510416667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45216</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45804.55577546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45391.63950231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45418.57553240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45518.55765046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45231</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44601</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44972.54864583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45362</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45574.66055555556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45800.64748842592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45596</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45546.51900462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>45476</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44504.34773148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45708.57878472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44957</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45337</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44816.37743055556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44490.3678125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45805.57254629629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45538</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45187</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45229.66976851852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45264</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45769.58028935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45373</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45805.56789351852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45555.64445601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45807.3696412037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45811.47126157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45196.705625</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>45040.55247685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45811</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>45385.93802083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45811</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>45460.45409722222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45810.61635416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45811</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>45289.51297453704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>45182.69945601852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>45463.63934027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>45544.50377314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45245</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44901.49873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44901.5021875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44901</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45338.49630787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45338.50097222222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45901.59040509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45345.45221064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45078.55971064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45384.70548611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45821.58226851852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45632.60225694445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45820</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45642.62440972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45673.59208333334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45673.59799768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45903.66820601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44948.74932870371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45904.48097222222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45904.48261574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45895</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45000</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45824.46503472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45908.50746527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45824.61335648148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45821.67606481481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45043.59314814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45824.69634259259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45825.60664351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45825.61603009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45708.58217592593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45670.69885416667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45909.36420138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45909.42730324074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45827.37668981482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45910.49222222222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45911.59913194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45911.52278935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45915.61380787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45826</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>45915.48717592593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>45005.47989583333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>45827.35050925926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45874</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45917</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>45827.37509259259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>45916.65115740741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>45916.64881944445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45744.72803240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45106.39899305555</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45917</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45916</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45917</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44743</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44743</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>45917</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>45917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44749</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44820</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>45917</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45917</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>45831</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>45337</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45769</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>45015</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>45833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45359.42555555556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45173.53648148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44911</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45378</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45055.56175925926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45512.48825231481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45128</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45925.68578703704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45925.67674768518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45860.10805555555</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45925.49622685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45834</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45447.46472222222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45925.49689814815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44601.39091435185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105.3630787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45834</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45079</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44523</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45834</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45678</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45362</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45926.28380787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45926.28853009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45336.61974537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>45926.31744212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45686</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45929.66826388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45834</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45834</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45664.96449074074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45929.55532407408</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>45517</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45929.61498842593</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45114.39181712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45834</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44838.60506944444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45547.69391203704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45838</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45839.30163194444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45673.60282407407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45838.64799768518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45838</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45838</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45800</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45933.38685185185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45838.73699074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>45838.65013888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45596</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45933</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45471</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45932.64091435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44935.50050925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45932.64996527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45841.62547453704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>45841.70883101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>45936</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45462.54887731482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45095.52581018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45264</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45841.70002314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45841.7075462963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45563.45512731482</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44236</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>45939.34381944445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45840.48662037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45163.49982638889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45890</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45884.57052083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45106</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>45554.70358796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45436.47261574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45390.47076388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44480.62013888889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45854</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45637</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45940.63652777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45587.56011574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>45847</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>45086.88280092592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>45009.46388888889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45418.5978125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44670.47001157407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45847.50042824074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45847.50482638889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45946</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45946.59305555555</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45845.80144675926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>45848.51086805556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45852.65015046296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45851.49091435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45852.4811574074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45854.7780787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45818</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45635.58824074074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45856.42827546296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45858.99248842592</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45478.5672337963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44620.44520833333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45628.49865740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>45547.72253472222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44495</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>45630.47969907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45952.40800925926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>45715</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45467</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45868.46616898148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>45954.56895833334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45538</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45342.61508101852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45342.62074074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45166</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45548.5656712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45407.5844212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45407.58672453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45230</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44292.71269675926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>45873.60206018519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>45957.47314814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45954.56961805555</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45359.41657407407</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45874</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45875</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45875.46413194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45874</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45959.61004629629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45267.59138888889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44256</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45159.45591435185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44816</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45881.32390046296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45684.46309027778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45965.42905092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45965.45212962963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45880.66565972222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45965.62971064815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45965.43515046296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45965.43920138889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45965.44450231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45965.45489583333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45532.51449074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44853.38413194445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>45831</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>45166</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45831</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>45831</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45217</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45171.28196759259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>45336.56375</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44805</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>45482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>45349</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>45971.41532407407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44966.45240740741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>44256</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44935.49515046296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45512.48291666667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45744.51283564815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45974.9260300926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45217</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45356.64479166667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45426</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44881</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45978.40087962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45112.38873842593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45359.41239583334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>45359.42908564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45978.40188657407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45978.39510416667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45978.43003472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45608.34103009259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44973</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45979.94978009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45075.45616898148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45979.94236111111</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45979.95478009259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45407</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>44978.74306712963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45418</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45418</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44998.80769675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45436.46581018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45740.37105324074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45740.41976851852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45418.67614583333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44313</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45706.93050925926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>44320</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45986.43984953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45436.45458333333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45986.43680555555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>45940.62878472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45989</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>45288</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45198</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45988.61512731481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45359.41071759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45988.62032407407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45992</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>45992</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45608.31934027778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45414.51543981482</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45385.38657407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45478.32578703704</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>45362</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>45698.44657407407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45992</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45436.47582175926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44635</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45342.61811342592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>46037.32871527778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45136.69425925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45995.49789351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>45722.59981481481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45996.40357638889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45996.40797453704</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45342.58723379629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45320</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44657</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44914</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45996</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32524,7 +32524,7 @@
         <v>45128</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>45614.54758101852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45692.46317129629</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45996</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45996.68310185185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46000</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>46000.6762962963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>46000</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>46000.68638888889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>45407.5816087963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44309.56733796297</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>46000.68327546296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>44445.35109953704</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>46002</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>46003.56027777777</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45635.5952662037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45723.64875</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45338.49901620371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45699</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45210</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45217.54987268519</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45366.65571759259</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45324.69274305556</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>46006.84724537037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>46049.37063657407</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45771.44638888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45771.44725694445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45267.58740740741</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>46008.57570601852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>46008.59400462963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44873.49165509259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45608.42064814815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>46008.56590277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>46050</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45135</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45090.70565972223</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>46052.33186342593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44435</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>46013.31658564815</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45236.90962962963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45728.70190972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45300</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44805.43658564815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45772.49033564814</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45608.43467592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45113</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45949.90959490741</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45341</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>46051</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45254.66193287037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45349</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44893.55828703703</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45483.61537037037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46058.42458333333</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45733.62466435185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>44951</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>46058.4265162037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>46058.42856481481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>45436.45836805556</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>45182</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>45476.48416666667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36068,7 +36068,7 @@
         <v>45166</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>45155.55802083333</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44381.93877314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36239,7 +36239,7 @@
         <v>44935</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>44739.58258101852</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45155.5568287037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45328</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45719</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45524</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45482</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>45005.46736111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>45218.51930555556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44991.38001157407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>44868.61945601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>44601</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45426.67791666667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45068.70543981482</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44974.37488425926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>45247.55608796296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>45614.54958333333</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>45614.54966435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>45680.73219907407</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>45189</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>45305.87826388889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>45748.68826388889</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>45726.88268518518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>45613.52194444444</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>45114</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>45735.61881944445</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44998.66505787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44943</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>45362</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>45644.58094907407</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>45708.57648148148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44995.50556712963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>45720.39148148148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>45720.39282407407</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44994.42039351852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>45267.37840277778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>45076.38233796296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>45092.64133101852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         <v>45308.83798611111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38462,7 +38462,7 @@
         <v>45161</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38519,7 +38519,7 @@
         <v>45524</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38576,7 +38576,7 @@
         <v>44880.8781712963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38633,7 +38633,7 @@
         <v>44907.46900462963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38690,7 +38690,7 @@
         <v>45180</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>45210.37579861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>45385</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45358</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44925</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38975,7 +38975,7 @@
         <v>44925</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>45302.37436342592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39089,7 +39089,7 @@
         <v>45544.36388888889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39146,7 +39146,7 @@
         <v>45032.88966435185</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45217.55627314815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>45128</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>45744.50616898148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44747</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44978.57898148148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44581.4650925926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45544.36585648148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45329</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45136.71178240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45460.49929398148</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39773,7 +39773,7 @@
         <v>45436.4487962963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45555.66891203704</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39887,7 +39887,7 @@
         <v>44420</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
         <v>45565.47667824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>45595.68021990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>45671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>45308.45583333333</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45488</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40229,7 +40229,7 @@
         <v>45146</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
         <v>45330</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>44735.45429398148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45618.70251157408</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45608.38702546297</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45342</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44895.55027777778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45519</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45763.59938657407</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45336.60260416667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45385.49362268519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>44309</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>44545.43649305555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45153.51409722222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45153.51726851852</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45180</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44812</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45398</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44442.71274305556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45149.68351851852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45471.6733912037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45471.69940972222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45727</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45653.30021990741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45447</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45328</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44490</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45540.40850694444</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45467</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45288</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44455</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44998</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45478.57016203704</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45712.42423611111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45551</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45385.44060185185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45113</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45700.57885416667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45783</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45616.56194444445</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45407.60662037037</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45784.41361111111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45418</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45440.66773148148</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45456</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45363.58059027778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45705.44603009259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45790</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45670</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>45015</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>45796.67884259259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>45796.67782407408</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>45544.49640046297</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>45796</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -575,7 +575,7 @@
         <v>45937.52355324074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>45239</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>45328</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45730.47016203704</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45730.47016203704</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44319</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45610</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45804</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>44535</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45041.38268518518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44336</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44819</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>45763.28596064815</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45573.72543981481</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45559.69049768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45547.66675925926</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45446.43868055556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45971.41400462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45988.61780092592</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45471</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45664</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>46045</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45043.58965277778</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44459</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45187.50584490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45638.32918981482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>44768</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>44805.45337962963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44455</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44530.58934027778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44805</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44810.51231481481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44512.46798611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44454</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44597</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>44461.63753472222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>44340.66128472222</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44613.61299768519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44328</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44798.35671296297</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44511</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44515</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44354</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44448</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44615.49030092593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44477.59568287037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44497</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44351.39648148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44586.37515046296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44307</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44445.44356481481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44442</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44823.67513888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44239.5428125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44511</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44615</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44431.36233796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44593</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44613</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44412</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44363</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>44364.7040162037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>44824</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>44351</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5939,7 +5939,7 @@
         <v>44401.56947916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
         <v>44434.40148148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>44414.61907407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44447</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44412</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>44504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>44609.61655092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>44487.40401620371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>44525.55510416667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>44454.6562962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>44606</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44454.65834490741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44867.62162037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44293</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44734.80560185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44692</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44615.3480324074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44257</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44859.32788194445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44488.38900462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44306</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44306</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44833</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44859.58693287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44434.40337962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>44739.71146990741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44515.6831712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44735.66392361111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>44419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>44461.34828703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44854.54513888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44728.48572916666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44538</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44635</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44336</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>44490.62605324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44461.61133101852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>44438</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44326</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44606</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44323.62754629629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44735.65734953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
         <v>44438</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         <v>44462.37774305556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>44469.84737268519</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44477.58659722222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44648</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>44706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>44706</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44306.62743055556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>44487.40119212963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44804</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>44855.73349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>45748.64699074074</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45740.42515046296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44656</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45338.50238425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45400</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>44783.50260416666</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>44743</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>44512.50164351852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>45385.48532407408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>44385</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>44991.38533564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>44938.32413194444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45218.36541666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>44783.91359953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>44569</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45530.50984953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>44985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>44783.91583333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>44958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>44901.46834490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45103</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>45384.46765046296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>44419</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45012.32489583334</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>45113.63806712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44600</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44606.47229166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44687.495625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>45608.39688657408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>45518.54971064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45632.59958333334</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45771.445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>44754</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45359.44944444444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44735.67114583333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45247</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         <v>45089.63818287037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         <v>44295</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45272.57439814815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45135.67082175926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45666.45196759259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45681.53275462963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44970.5053587963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45110</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45166.48193287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44365</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45629.54510416667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45216</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45804.55577546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45391.63950231481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45418.57553240741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45518.55765046296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45798</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45231</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44601</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>44972.54864583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45362</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45574.66055555556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45800.64748842592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45596</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45546.51900462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45782</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>45476</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>44504.34773148148</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45708.57878472222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>44957</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>45337</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>44816.37743055556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44490.3678125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>45805.57254629629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13193,7 +13193,7 @@
         <v>45538</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45187</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45229.66976851852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>45264</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>45769.58028935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45373</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45805.56789351852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45555.64445601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45807.3696412037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45811.47126157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>45196.705625</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>45040.55247685185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45811</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>45385.93802083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45811</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45811</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>45460.45409722222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>45810.61635416667</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>45811</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>45891</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>45289.51297453704</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>45182.69945601852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>45463.63934027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>45544.50377314815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>45245</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44901.49873842593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44901.5021875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44901</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45896</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45338.49630787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45338.50097222222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45901.59040509259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>45345.45221064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45078.55971064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45384.70548611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45462</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45821.58226851852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45632.60225694445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>45820</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>45642.62440972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>45673.59208333334</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45673.59799768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45903.66820601852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>44948.74932870371</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45015</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45895</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45904.48097222222</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45904.48261574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45895</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45000</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45824.46503472222</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45908.50746527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45824.61335648148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45821.67606481481</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45043.59314814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45824.69634259259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45825.60664351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45825.61603009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45708.58217592593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45670.69885416667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45909.36420138889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45909.42730324074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45827.37668981482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45910.49222222222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45911.59913194444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45911.52278935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45915.61380787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45826</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>45915.48717592593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>45005.47989583333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>45827.35050925926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45874</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45917</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>45827.37509259259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>45916.65115740741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>45916.64881944445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45744.72803240741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>45106.39899305555</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45917</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>45916</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45917</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44743</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44743</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>45917</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>45917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44749</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44820</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>45917</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45917</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>45917</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>45831</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>45337</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>45769</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>45015</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>45833</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>45833</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>45922</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>45833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45359.42555555556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45173.53648148148</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44911</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45378</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45055.56175925926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45512.48825231481</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45128</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45925.68578703704</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45925.67674768518</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45860.10805555555</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>45925.49622685185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45834</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>45447.46472222222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>45925.49689814815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44601.39091435185</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45105.3630787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45834</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>45079</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44523</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45834</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45678</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45362</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45926.28380787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>45926.28853009259</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45336.61974537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>45926.31744212963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>45686</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45929.66826388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45834</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45834</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45664.96449074074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45929.55532407408</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20794,7 +20794,7 @@
         <v>45517</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45929.61498842593</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45114.39181712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45834</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45259</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44838.60506944444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45547.69391203704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45838</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45839.30163194444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45673.60282407407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45838.64799768518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45838</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45838</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45800</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45933.38685185185</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>45838.73699074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>45838.65013888889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45596</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45933</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45471</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45932.64091435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44935.50050925926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>45932.64996527778</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>45841.62547453704</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>45841.70883101852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>45936</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>45462.54887731482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>45095.52581018519</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45264</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22457,7 +22457,7 @@
         <v>45841.70002314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45841.7075462963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45563.45512731482</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>44236</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>45939.34381944445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>45840.48662037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22799,7 +22799,7 @@
         <v>45163.49982638889</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22856,7 +22856,7 @@
         <v>45890</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
         <v>45884.57052083333</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22970,7 +22970,7 @@
         <v>45106</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23027,7 +23027,7 @@
         <v>45554.70358796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45436.47261574074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45845</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23198,7 +23198,7 @@
         <v>45390.47076388889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44480.62013888889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>45854</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>45637</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         <v>45940.63652777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23483,7 +23483,7 @@
         <v>45587.56011574074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23622,7 +23622,7 @@
         <v>45847</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>45086.88280092592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>45009.46388888889</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23793,7 +23793,7 @@
         <v>45418.5978125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44670.47001157407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45847.50042824074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>45847.50482638889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45946</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45847</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>45946.59305555555</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>45845.80144675926</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>45946</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>45848.51086805556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>45852.65015046296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>45851.49091435185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>45852.4811574074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>45854</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>45854.7780787037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>45818</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>45635.58824074074</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>45856.42827546296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24819,7 +24819,7 @@
         <v>45858.99248842592</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>45478.5672337963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44620.44520833333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>45628.49865740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>45547.72253472222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25104,7 +25104,7 @@
         <v>45593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25161,7 +25161,7 @@
         <v>44495</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         <v>45630.47969907407</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45952.40800925926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         <v>45715</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45868</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45467</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45868.46616898148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>45954.56895833334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45538</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45342.61508101852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45342.62074074074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45166</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45548.5656712963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45407.5844212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45407.58672453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45230</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44292.71269675926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>45873.60206018519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>45957.47314814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45954.56961805555</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45958</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45359.41657407407</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26591,7 +26591,7 @@
         <v>45875</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>45874</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45875</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45875.46413194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45874</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45959.61004629629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26933,7 +26933,7 @@
         <v>45267.59138888889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>44256</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45159.45591435185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27104,7 +27104,7 @@
         <v>45952</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27161,7 +27161,7 @@
         <v>44816</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27218,7 +27218,7 @@
         <v>45881.32390046296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27275,7 +27275,7 @@
         <v>45684.46309027778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27332,7 +27332,7 @@
         <v>45965.42905092592</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27389,7 +27389,7 @@
         <v>45965.45212962963</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>45880.66565972222</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45965.62971064815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>45965.43515046296</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45965.43920138889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45965.44450231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45965.45489583333</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>45532.51449074074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44853.38413194445</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>45831</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>45166</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>45831</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>45831</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45217</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45171.28196759259</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>45336.56375</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44805</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>45482</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>45349</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>45971.41532407407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44966.45240740741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>44256</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44935.49515046296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45512.48291666667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45744.51283564815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>45974.9260300926</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45217</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>45356.64479166667</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45426</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44881</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45978.40087962963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45112.38873842593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45359.41239583334</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>45359.42908564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>45978.40188657407</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>45978.39510416667</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45978.43003472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45608.34103009259</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44973</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45979.94978009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45075.45616898148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45979.94236111111</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>45979.95478009259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>45407</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>44978.74306712963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45418</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>45418</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44998.80769675926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>45436.46581018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45740.37105324074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45740.41976851852</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45418.67614583333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44313</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45706.93050925926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>44320</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45986.43984953704</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30695,7 +30695,7 @@
         <v>45436.45458333333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>45986.43680555555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30809,7 +30809,7 @@
         <v>45940.62878472222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45989</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>45288</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>45198</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>45988.61512731481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>45359.41071759259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>45988.62032407407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45992</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>45992</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45608.31934027778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45414.51543981482</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>45385.38657407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45478.32578703704</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>45362</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>45698.44657407407</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45992</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45436.47582175926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44635</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45342.61811342592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>46037.32871527778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45136.69425925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45995.49789351852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>45722.59981481481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45996.40357638889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>45996.40797453704</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>45342.58723379629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45320</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44657</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44914</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45996</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32524,7 +32524,7 @@
         <v>45128</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>45614.54758101852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45692.46317129629</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45996</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45996.68310185185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46000</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>46000.6762962963</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>46000</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>46000.68638888889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>45407.5816087963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>44309.56733796297</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>46000.68327546296</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>44445.35109953704</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>46002</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>46003.56027777777</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45635.5952662037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45723.64875</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45338.49901620371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45699</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45210</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         <v>45217.54987268519</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33726,7 +33726,7 @@
         <v>45366.65571759259</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>45324.69274305556</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>46006.84724537037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33897,7 +33897,7 @@
         <v>46049.37063657407</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
         <v>45771.44638888889</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34011,7 +34011,7 @@
         <v>45771.44725694445</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45267.58740740741</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>46008.57570601852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>46008.59400462963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>44873.49165509259</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45608.42064814815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>46008.56590277778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>46050</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45135</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45090.70565972223</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>46052.33186342593</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44435</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>46013.31658564815</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45236.90962962963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45728.70190972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>45300</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>44805.43658564815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34980,7 +34980,7 @@
         <v>45772.49033564814</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35037,7 +35037,7 @@
         <v>45608.43467592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35094,7 +35094,7 @@
         <v>45113</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45949.90959490741</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45341</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>46051</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45254.66193287037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45349</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>44893.55828703703</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45483.61537037037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46058.42458333333</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45733.62466435185</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>44951</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44935</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>46058.4265162037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>46058.42856481481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>45436.45836805556</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>45182</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>45476.48416666667</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36068,7 +36068,7 @@
         <v>45166</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36125,7 +36125,7 @@
         <v>45155.55802083333</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36182,7 +36182,7 @@
         <v>44381.93877314815</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36239,7 +36239,7 @@
         <v>44935</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>44739.58258101852</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45155.5568287037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45328</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45719</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45524</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45482</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>45005.46736111111</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>45218.51930555556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44991.38001157407</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>44868.61945601852</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>44601</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45426.67791666667</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45068.70543981482</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44974.37488425926</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>45247.55608796296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>45614.54958333333</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>45614.54966435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>45680.73219907407</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>45189</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>45305.87826388889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>45748.68826388889</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>45726.88268518518</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>45613.52194444444</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>45114</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>45735.61881944445</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44998.66505787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44943</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37835,7 +37835,7 @@
         <v>45362</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37892,7 +37892,7 @@
         <v>45644.58094907407</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37949,7 +37949,7 @@
         <v>45708.57648148148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38006,7 +38006,7 @@
         <v>44995.50556712963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38063,7 +38063,7 @@
         <v>45720.39148148148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38120,7 +38120,7 @@
         <v>45720.39282407407</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>44994.42039351852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38234,7 +38234,7 @@
         <v>45267.37840277778</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38291,7 +38291,7 @@
         <v>45076.38233796296</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38348,7 +38348,7 @@
         <v>45092.64133101852</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         <v>45308.83798611111</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38462,7 +38462,7 @@
         <v>45161</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38519,7 +38519,7 @@
         <v>45524</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38576,7 +38576,7 @@
         <v>44880.8781712963</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38633,7 +38633,7 @@
         <v>44907.46900462963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38690,7 +38690,7 @@
         <v>45180</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38747,7 +38747,7 @@
         <v>45210.37579861111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38804,7 +38804,7 @@
         <v>45385</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45358</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44925</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38975,7 +38975,7 @@
         <v>44925</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39032,7 +39032,7 @@
         <v>45302.37436342592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39089,7 +39089,7 @@
         <v>45544.36388888889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39146,7 +39146,7 @@
         <v>45032.88966435185</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39203,7 +39203,7 @@
         <v>45217.55627314815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>45128</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>45744.50616898148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39374,7 +39374,7 @@
         <v>44747</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39431,7 +39431,7 @@
         <v>44978.57898148148</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39488,7 +39488,7 @@
         <v>44581.4650925926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45544.36585648148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45329</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45136.71178240741</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39716,7 +39716,7 @@
         <v>45460.49929398148</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39773,7 +39773,7 @@
         <v>45436.4487962963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45555.66891203704</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39887,7 +39887,7 @@
         <v>44420</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39944,7 +39944,7 @@
         <v>45565.47667824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40001,7 +40001,7 @@
         <v>45595.68021990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>45671</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>45308.45583333333</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45488</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40229,7 +40229,7 @@
         <v>45146</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
         <v>45330</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40348,7 +40348,7 @@
         <v>44735.45429398148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40405,7 +40405,7 @@
         <v>45618.70251157408</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40462,7 +40462,7 @@
         <v>45608.38702546297</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40519,7 +40519,7 @@
         <v>45342</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40576,7 +40576,7 @@
         <v>44895.55027777778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40633,7 +40633,7 @@
         <v>45519</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40690,7 +40690,7 @@
         <v>45763.59938657407</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40747,7 +40747,7 @@
         <v>45336.60260416667</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40804,7 +40804,7 @@
         <v>45385.49362268519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40861,7 +40861,7 @@
         <v>44309</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40918,7 +40918,7 @@
         <v>44545.43649305555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40975,7 +40975,7 @@
         <v>45153.51409722222</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41032,7 +41032,7 @@
         <v>45153.51726851852</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41089,7 +41089,7 @@
         <v>45180</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41146,7 +41146,7 @@
         <v>44812</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         <v>45398</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41260,7 +41260,7 @@
         <v>44442.71274305556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>45149.68351851852</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41374,7 +41374,7 @@
         <v>45471.6733912037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41431,7 +41431,7 @@
         <v>45471.69940972222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>45727</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>45653.30021990741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>45447</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>45328</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44490</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45540.40850694444</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>45467</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45288</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41944,7 +41944,7 @@
         <v>44455</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42001,7 +42001,7 @@
         <v>44998</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42058,7 +42058,7 @@
         <v>45478.57016203704</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42115,7 +42115,7 @@
         <v>45712.42423611111</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42172,7 +42172,7 @@
         <v>45551</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42229,7 +42229,7 @@
         <v>45385.44060185185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42286,7 +42286,7 @@
         <v>45113</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42343,7 +42343,7 @@
         <v>45700.57885416667</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>45783</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>45616.56194444445</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>45407.60662037037</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45784.41361111111</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>45418</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>45440.66773148148</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>45456</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45363.58059027778</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45705.44603009259</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45790</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45670</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43032,7 +43032,7 @@
         <v>45015</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43089,7 +43089,7 @@
         <v>45796.67884259259</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>45796.67782407408</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43203,7 +43203,7 @@
         <v>45544.49640046297</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43260,7 +43260,7 @@
         <v>45796</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
